--- a/ch_05/hof_inducted.xlsx
+++ b/ch_05/hof_inducted.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26519"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26619"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\georg\Documents\GitHub\modern-analytics-excel-book\ch_05\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CE47564-2AF9-42F3-971C-6705C6D2F4F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A348ACEC-F83C-4E41-BA37-460F4E752FD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="hof_inducted" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -1060,7 +1060,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="16"/>
@@ -1598,24 +1598,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2FEFD676-644A-4FB3-8994-5E4FACF46FDE}" name="hof_inducted" displayName="hof_inducted" ref="A1:I324" totalsRowShown="0">
-  <autoFilter ref="A1:I324" xr:uid="{2FEFD676-644A-4FB3-8994-5E4FACF46FDE}"/>
-  <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{3FECCCF1-9BC7-4767-939F-F342FEB9D5A9}" name="playerid"/>
-    <tableColumn id="2" xr3:uid="{2DBEACF4-C777-44F9-BC32-24795EBE04A4}" name="yearid"/>
-    <tableColumn id="3" xr3:uid="{C9780477-C9C9-45E2-A0E6-72072F801587}" name="votedby"/>
-    <tableColumn id="4" xr3:uid="{46F7D1DD-0D17-42D8-B71C-8038C1C30D74}" name="ballots"/>
-    <tableColumn id="5" xr3:uid="{665480BF-FC0F-45AB-866D-B372B272956C}" name="needed"/>
-    <tableColumn id="6" xr3:uid="{AF5C6E93-F27B-4FD7-9205-650149BF16F2}" name="votes"/>
-    <tableColumn id="7" xr3:uid="{F2F7B379-76EF-4F73-8823-01041457DEDE}" name="inducted"/>
-    <tableColumn id="8" xr3:uid="{7E77FFAF-42E0-4442-A8C1-E4FBC64101D9}" name="category"/>
-    <tableColumn id="9" xr3:uid="{D581331F-ABF5-49ED-86C5-EF7F6FD1430C}" name="needed_note"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1912,19 +1894,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I324"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I324"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.65"/>
-  <cols>
-    <col min="7" max="7" width="8.953125" customWidth="1"/>
-    <col min="8" max="8" width="8.76953125" customWidth="1"/>
-    <col min="9" max="9" width="12.6328125" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.65">
       <c r="A1" t="s">
@@ -8582,8 +8557,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>